--- a/input.xlsx
+++ b/input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\excel_to_json_for_i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="27720" windowHeight="12870"/>
+    <workbookView xWindow="2160" yWindow="0" windowWidth="27720" windowHeight="12870"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="121">
   <si>
     <t>en</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>星期日</t>
-  </si>
-  <si>
-    <t>Max file size: {maxSize} MB\r\n{fileName}: {fileSize} MB</t>
-  </si>
-  <si>
-    <t>檔案大小限制: {maxSize} MB\r\n{fileName}: {fileSize} MB</t>
   </si>
   <si>
     <t>{name} joined room.</t>
@@ -381,12 +375,88 @@
     <t>key</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檔案大小限制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>: {maxSize} MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>{fileName}: {fileSize} MB</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Max file size: {maxSize} MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>{fileName}: {fileSize} MB</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Max file size: {maxSize} MB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>{fileName}: {fileSize} MB</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -411,6 +481,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -763,8 +839,8 @@
   </sheetPr>
   <dimension ref="A1:Y1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A66"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -776,7 +852,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1105,14 +1181,14 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
+      <c r="A11" s="8" t="s">
+        <v>120</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
+      <c r="B11" s="8" t="s">
+        <v>119</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
+      <c r="C11" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1139,13 +1215,13 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -1172,13 +1248,13 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1205,13 +1281,13 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1238,13 +1314,13 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1271,13 +1347,13 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1304,13 +1380,13 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1337,13 +1413,13 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1370,13 +1446,13 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1403,13 +1479,13 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1436,13 +1512,13 @@
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1469,13 +1545,13 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1502,13 +1578,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1535,13 +1611,13 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1568,13 +1644,13 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1601,13 +1677,13 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1634,13 +1710,13 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1667,13 +1743,13 @@
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1700,13 +1776,13 @@
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1733,13 +1809,13 @@
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1766,13 +1842,13 @@
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1799,13 +1875,13 @@
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1832,13 +1908,13 @@
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1865,13 +1941,13 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1898,13 +1974,13 @@
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1931,13 +2007,13 @@
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1964,13 +2040,13 @@
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1997,13 +2073,13 @@
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2030,13 +2106,13 @@
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2063,13 +2139,13 @@
     </row>
     <row r="40" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2096,13 +2172,13 @@
     </row>
     <row r="41" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2129,13 +2205,13 @@
     </row>
     <row r="42" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2162,13 +2238,13 @@
     </row>
     <row r="43" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2195,13 +2271,13 @@
     </row>
     <row r="44" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2228,13 +2304,13 @@
     </row>
     <row r="45" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2261,13 +2337,13 @@
     </row>
     <row r="46" spans="1:25" ht="51" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2294,13 +2370,13 @@
     </row>
     <row r="47" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -2327,13 +2403,13 @@
     </row>
     <row r="48" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2360,13 +2436,13 @@
     </row>
     <row r="49" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2393,13 +2469,13 @@
     </row>
     <row r="50" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2426,13 +2502,13 @@
     </row>
     <row r="51" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2459,13 +2535,13 @@
     </row>
     <row r="52" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2492,13 +2568,13 @@
     </row>
     <row r="53" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2525,13 +2601,13 @@
     </row>
     <row r="54" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2558,13 +2634,13 @@
     </row>
     <row r="55" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2591,13 +2667,13 @@
     </row>
     <row r="56" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2624,13 +2700,13 @@
     </row>
     <row r="57" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2657,13 +2733,13 @@
     </row>
     <row r="58" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2690,13 +2766,13 @@
     </row>
     <row r="59" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2723,13 +2799,13 @@
     </row>
     <row r="60" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2756,13 +2832,13 @@
     </row>
     <row r="61" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2789,13 +2865,13 @@
     </row>
     <row r="62" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2822,13 +2898,13 @@
     </row>
     <row r="63" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2855,13 +2931,13 @@
     </row>
     <row r="64" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2888,13 +2964,13 @@
     </row>
     <row r="65" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -2921,13 +2997,13 @@
     </row>
     <row r="66" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
